--- a/data/nh_pop_area.xlsx
+++ b/data/nh_pop_area.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="5060" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="520" yWindow="3860" windowWidth="24760" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,215 +19,303 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>neighborhood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>population</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pop_density</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>area_square_mile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zipcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Bayview Hunters Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Bernal Heights</t>
   </si>
   <si>
     <t>Castro/Upper Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Chinatown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Excelsior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Financial District</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Glen Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Golden Gate Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Haight Ashbury</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Hayes Valley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Inner Richmond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Inner Sunset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Japantown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Lakeshore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Lincoln Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Lone Mountain/USF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Marina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mclaren Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Misson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Misson Bay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Nob Hill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Noe Valley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>North Beach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Oceanview/Merced/Ingleside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Outer Misson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Outer Richmond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pacific Heights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Portola</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Potrero Hill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Presidio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Presidio Heights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Russian Hill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Seacliff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>South of Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sunset/Parkside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Treasure Island</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Twin Peaks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Visitacion Valley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>West of Twin Peaks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Western Addition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outer sunset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inner sunset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tenderloin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=======</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W Of Twin Peaks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bayview</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bernal heights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castro/upper market</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinatown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crocker amazon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond heights/glen park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial district</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>downtown/civic center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkside</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasure Island/YBI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outer Sunset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个Sunset是： pop 85252  area 5.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Addition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inner Richmond</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by zipcode match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>just guessing..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>google map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip code match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>google map, density seacliff average</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>google map, density Inner Richmond</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search by zipcode, density Visitacion Valley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf average density</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -263,13 +351,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -281,60 +397,157 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="135">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -357,6 +570,52 @@
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -378,6 +637,52 @@
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -706,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -718,528 +1023,711 @@
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17">
-      <c r="A2" s="1" t="s">
+      <c r="C2">
+        <v>35890</v>
+      </c>
+      <c r="D2">
+        <v>3.95</v>
+      </c>
+      <c r="E2">
+        <v>9086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>35890</v>
-      </c>
-      <c r="C2">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>24824</v>
+      </c>
+      <c r="D3">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="E3">
+        <v>23664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>24824</v>
-      </c>
-      <c r="C3">
-        <v>1.0489999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>19820</v>
+      </c>
+      <c r="D4">
+        <v>0.86</v>
+      </c>
+      <c r="E4">
+        <v>23110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>19820</v>
-      </c>
-      <c r="C4">
-        <v>0.86</v>
-      </c>
-      <c r="D4">
-        <v>23110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>100574</v>
+      </c>
+      <c r="D5">
+        <v>1.34</v>
+      </c>
+      <c r="E5">
+        <v>75055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>100574</v>
-      </c>
-      <c r="C5">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>38300</v>
+      </c>
+      <c r="D7">
+        <v>1.35</v>
+      </c>
+      <c r="E7">
+        <v>28370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>38300</v>
-      </c>
-      <c r="C6">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="C8">
+        <v>9447</v>
+      </c>
+      <c r="D8">
+        <v>0.46</v>
+      </c>
+      <c r="E8">
+        <v>20537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>9447</v>
-      </c>
-      <c r="C7">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>6979</v>
+      </c>
+      <c r="D9">
+        <v>1.26</v>
+      </c>
+      <c r="E9">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>6979</v>
-      </c>
-      <c r="C8">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="D10">
+        <v>1.58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>10601</v>
+      </c>
+      <c r="D11">
+        <v>0.309</v>
+      </c>
+      <c r="E11">
+        <v>34307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>10601</v>
-      </c>
-      <c r="C10">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="C12">
+        <v>5672</v>
+      </c>
+      <c r="D12">
+        <v>0.18</v>
+      </c>
+      <c r="E12">
+        <v>31511</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>5672</v>
-      </c>
-      <c r="C11">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>59297</v>
+      </c>
+      <c r="D13">
+        <v>2.7</v>
+      </c>
+      <c r="E13">
+        <v>21961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>59297</v>
-      </c>
-      <c r="C12">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>25320</v>
+      </c>
+      <c r="E14" s="6">
+        <v>19020</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>85252</v>
-      </c>
-      <c r="C13">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="C15">
+        <v>1397</v>
+      </c>
+      <c r="D15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E15">
+        <v>38806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>1397</v>
-      </c>
-      <c r="C14">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>19580</v>
+      </c>
+      <c r="D16">
+        <v>3.17</v>
+      </c>
+      <c r="E16">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>19580</v>
-      </c>
-      <c r="C15">
-        <v>3.17</v>
-      </c>
-      <c r="D15">
-        <v>6170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="D17">
+        <v>0.16</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2430</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="C18">
+        <v>13204</v>
+      </c>
+      <c r="D18">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>21961</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>13204</v>
-      </c>
-      <c r="C17">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>21240</v>
+      </c>
+      <c r="E19">
+        <v>21750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>21240</v>
-      </c>
-      <c r="D18">
-        <v>21750</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="D20">
+        <v>0.495</v>
+      </c>
+      <c r="E20" s="6">
+        <v>17260</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>55380</v>
+      </c>
+      <c r="E21">
+        <v>32340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>55380</v>
-      </c>
-      <c r="D20">
-        <v>32340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>5390</v>
+      </c>
+      <c r="D22">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="E22">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>5390</v>
-      </c>
-      <c r="C21">
-        <v>0.84199999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>21900</v>
+      </c>
+      <c r="E23">
+        <v>59450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>21900</v>
-      </c>
-      <c r="D22">
-        <v>59450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>18930</v>
+      </c>
+      <c r="E24">
+        <v>21440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
-        <v>18930</v>
-      </c>
-      <c r="D23">
-        <v>21440</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>12240</v>
+      </c>
+      <c r="E25">
+        <v>20210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
-        <v>12240</v>
-      </c>
-      <c r="D24">
-        <v>20210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="C26">
+        <v>28670</v>
+      </c>
+      <c r="E26">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
-        <v>28670</v>
-      </c>
-      <c r="D25">
-        <v>21500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>27400</v>
+      </c>
+      <c r="E27">
+        <v>20370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
-        <v>27400</v>
-      </c>
-      <c r="D26">
-        <v>20370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>36440</v>
+      </c>
+      <c r="E28">
+        <v>26820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>36440</v>
-      </c>
-      <c r="D27">
-        <v>26820</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>21925</v>
+      </c>
+      <c r="D29">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E29">
+        <v>22677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
-        <v>21925</v>
-      </c>
-      <c r="C28">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="D28">
-        <v>22677</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="C31">
+        <v>4353</v>
+      </c>
+      <c r="D31">
+        <v>9.0920000000000005</v>
+      </c>
+      <c r="E31" s="6">
+        <v>480</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
-        <v>4353</v>
-      </c>
-      <c r="C29">
-        <v>9.0920000000000005</v>
-      </c>
-      <c r="D29">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>12440</v>
+      </c>
+      <c r="E32">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
-        <v>12440</v>
-      </c>
-      <c r="D30">
-        <v>9350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>799</v>
+      </c>
+      <c r="D33">
+        <v>2.347</v>
+      </c>
+      <c r="E33">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
-        <v>799</v>
-      </c>
-      <c r="C31">
-        <v>2.347</v>
-      </c>
-      <c r="D31">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>7770</v>
+      </c>
+      <c r="E34">
+        <v>17020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
-        <v>7770</v>
-      </c>
-      <c r="D32">
-        <v>17020</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>17580</v>
+      </c>
+      <c r="E35">
+        <v>36160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B33">
-        <v>17580</v>
-      </c>
-      <c r="D33">
-        <v>36160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>1760</v>
+      </c>
+      <c r="E36">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
-        <v>1760</v>
-      </c>
-      <c r="D34">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>11457</v>
+      </c>
+      <c r="D37">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E37">
+        <v>18043</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
-        <v>11457</v>
-      </c>
-      <c r="C35">
-        <v>0.63500000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="C38" s="5">
+        <v>47460</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6">
+        <v>19900</v>
+      </c>
+      <c r="F38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>25067</v>
+      </c>
+      <c r="D39">
+        <v>0.35</v>
+      </c>
+      <c r="E39" s="6">
+        <v>71694</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
-        <v>85252</v>
-      </c>
-      <c r="C36">
-        <v>5.7</v>
-      </c>
-      <c r="D36">
-        <v>14934</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37">
-        <v>25067</v>
-      </c>
-      <c r="C37">
-        <v>0.35</v>
-      </c>
-      <c r="D37">
-        <v>71694</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="C40">
+        <v>2300</v>
+      </c>
+      <c r="D40">
+        <v>0.9</v>
+      </c>
+      <c r="E40">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
-        <v>2300</v>
-      </c>
-      <c r="C38">
-        <v>0.9</v>
-      </c>
-      <c r="D38">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>6970</v>
+      </c>
+      <c r="E41">
+        <v>10580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
-        <v>6970</v>
-      </c>
-      <c r="D39">
-        <v>10580</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>23690</v>
+      </c>
+      <c r="E42">
+        <v>17260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
-        <v>23690</v>
-      </c>
-      <c r="D40">
-        <v>17260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>20300</v>
+      </c>
+      <c r="E43">
+        <v>10780</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
-        <v>20300</v>
-      </c>
-      <c r="D41">
-        <v>10780</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
         <v>12934</v>
       </c>
-      <c r="C42">
+      <c r="D44">
         <v>0.46300000000000002</v>
       </c>
-      <c r="D42">
+      <c r="E44">
         <v>27919</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>47460</v>
-      </c>
-      <c r="D45">
-        <v>19900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>25320</v>
-      </c>
-      <c r="D46">
-        <v>19020</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
+    <row r="46" spans="1:6">
+      <c r="B46" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/nh_pop_area.xlsx
+++ b/data/nh_pop_area.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="3860" windowWidth="24760" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="3860" windowWidth="24760" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
